--- a/test/email.xlsx
+++ b/test/email.xlsx
@@ -16,22 +16,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>eg my email address is mrrame@gmail.com and his email is mrgar@yahoo.com should return mrrame@gmail.com,mrgar@yahoo.com</t>
   </si>
   <si>
     <t>eg my email address is mrram2e@gmail.com and his email is mrga2r@yahoo.com should return mrrame@gmail.com,mrgar@yahoo.com</t>
   </si>
+  <si>
+    <t>mr77rame@gmail.com,mrg77ar@yahoo.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -55,13 +67,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -361,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +400,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
